--- a/public/PHPExcel/门店模板.xlsx
+++ b/public/PHPExcel/门店模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14100"/>
+    <workbookView windowWidth="28800" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>门店名称</t>
   </si>
@@ -40,16 +40,25 @@
     <t>登录密码</t>
   </si>
   <si>
-    <t>昌平考牛蛙</t>
-  </si>
-  <si>
-    <t>北京市昌平区</t>
-  </si>
-  <si>
-    <t>刘美丽</t>
-  </si>
-  <si>
-    <t>liumeili</t>
+    <t>测试门店（必填）</t>
+  </si>
+  <si>
+    <t>北京市昌平区xxx（必填）</t>
+  </si>
+  <si>
+    <t>刘美丽（必填）</t>
+  </si>
+  <si>
+    <t>15100220022（必填）</t>
+  </si>
+  <si>
+    <t>7:00（必填）</t>
+  </si>
+  <si>
+    <t>22:00（必填）</t>
+  </si>
+  <si>
+    <t>必填</t>
   </si>
 </sst>
 </file>
@@ -58,11 +67,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,6 +80,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -85,6 +101,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -94,14 +117,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,6 +139,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -123,8 +155,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,78 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,163 +246,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,11 +452,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,188 +531,167 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -991,20 +1016,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2410714285714" customWidth="1"/>
-    <col min="2" max="2" width="23.0625" customWidth="1"/>
-    <col min="4" max="4" width="12.7857142857143"/>
+    <col min="1" max="1" width="16.5178571428571" customWidth="1"/>
+    <col min="2" max="2" width="27.6785714285714" customWidth="1"/>
+    <col min="3" max="3" width="17.5535714285714" customWidth="1"/>
+    <col min="4" max="4" width="21.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="15.4642857142857" customWidth="1"/>
     <col min="6" max="6" width="18.1517857142857" customWidth="1"/>
     <col min="7" max="7" width="19.0446428571429" customWidth="1"/>
+    <col min="8" max="8" width="14.7321428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1034,30 +1061,44 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>15132456781</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.979166666666667</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="5:6">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
